--- a/save_brc_test.xlsx
+++ b/save_brc_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1\deep_sdy_v1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1\deep_sdy_v1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA8552D-062E-49B9-8BAE-DD5086618B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CBA9D7-CE5E-4AF5-B239-A2B1FE9AA07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3492" yWindow="1296" windowWidth="17628" windowHeight="9084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4188" yWindow="1992" windowWidth="17628" windowHeight="9084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -363,41 +363,13 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C1">
-        <v>3.807351972217357</v>
+        <v>2.0184168691835529</v>
       </c>
       <c r="D1">
-        <v>3.7403336242688634</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>87</v>
-      </c>
-      <c r="C2">
-        <v>3.851623506778024</v>
-      </c>
-      <c r="D2">
-        <v>3.7651267623561986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>88</v>
-      </c>
-      <c r="C3">
-        <v>3.895895041338691</v>
-      </c>
-      <c r="D3">
-        <v>3.8265247997798641</v>
+        <v>1.8336375132693932</v>
       </c>
     </row>
   </sheetData>
